--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_32.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1042577.318428906</v>
+        <v>846443.4984989042</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>353.3637142815953</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>34.0877759423364</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>122.5935461816078</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>158.2240859585677</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>65.45045825209382</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>80.02240554101581</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>23.32897990642486</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>79.57033125550514</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>322.8312265263966</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>218.0731488975166</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>49.20343734336398</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>140.1188684221794</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.37466424891429</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,7 +1582,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,16 +1819,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>81.35172397050945</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>220.4334597379113</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>34.47174620646848</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.1017544632879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.51284162387407</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>37.73441534125552</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>131.6781577333173</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>65.06182847190721</v>
       </c>
     </row>
     <row r="26">
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>82.47516986507647</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>146.1520465816259</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,13 +2795,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2950,19 +2950,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>33.35146980186034</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>199.7436324197956</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>101.5769296085227</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,19 +3241,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>166.177933036752</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>3.347695664764597</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>61.24767698826445</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3661,25 +3661,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>139.8205130728556</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>146.7784757053592</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>10.88750682482042</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -3955,16 +3955,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>92.16426352787512</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>74.85929806337531</v>
+        <v>242.212465931496</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1667.156396867425</v>
+        <v>666.7503635877424</v>
       </c>
       <c r="C2" t="n">
-        <v>1298.193879927013</v>
+        <v>666.7503635877424</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>666.7503635877424</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X2" t="n">
-        <v>2057.295728843236</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y2" t="n">
-        <v>1667.156396867425</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.7161456655658</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>249.7161456655658</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>604.2971193765273</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>604.2971193765273</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146241</v>
+        <v>604.2971193765273</v>
       </c>
       <c r="V4" t="n">
-        <v>249.7161456655658</v>
+        <v>604.2971193765273</v>
       </c>
       <c r="W4" t="n">
-        <v>249.7161456655658</v>
+        <v>604.2971193765273</v>
       </c>
       <c r="X4" t="n">
-        <v>249.7161456655658</v>
+        <v>604.2971193765273</v>
       </c>
       <c r="Y4" t="n">
-        <v>249.7161456655658</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1579.049931616194</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.087414675782</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2342.655021853086</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2342.655021853086</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2342.655021853086</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1969.189263592006</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y5" t="n">
-        <v>1579.049931616194</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>259.1560728187101</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>358.5813018857447</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1001.280783616703</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="C8" t="n">
-        <v>632.3182666762914</v>
+        <v>1942.094997264733</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>1583.829298657982</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W8" t="n">
-        <v>1717.512263598976</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.512263598976</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="Y8" t="n">
-        <v>1327.372931623164</v>
+        <v>2311.057514205144</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.391796148808</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.391796148808</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.391796148808</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.391796148808</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>570.4247794971948</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.391796148808</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.391796148808</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.391796148808</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.391796148808</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5027,22 +5027,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,40 +5051,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171745</v>
+        <v>532.2639865649898</v>
       </c>
       <c r="M12" t="n">
-        <v>1018.434294497136</v>
+        <v>1300.632132957451</v>
       </c>
       <c r="N12" t="n">
-        <v>1822.845872761287</v>
+        <v>2105.043711221602</v>
       </c>
       <c r="O12" t="n">
-        <v>2349.156466080599</v>
+        <v>2353.797125305564</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8679414000756</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>238.7513019877398</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1450.052973336777</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1250.132963252329</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1026.347548041835</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>737.2189092553931</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>737.2189092553931</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W13" t="n">
-        <v>447.8017392184324</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X13" t="n">
-        <v>447.8017392184324</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.8017392184324</v>
+        <v>557.8041243279824</v>
       </c>
     </row>
     <row r="14">
@@ -5273,49 +5273,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>246.2867756623457</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>796.6263613937374</v>
+        <v>754.8724882112626</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.946494673699</v>
+        <v>1341.409032182923</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.809122337732</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.272883640391</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.9727323706985</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C16" t="n">
-        <v>653.9727323706985</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D16" t="n">
-        <v>653.9727323706985</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>964.135741824786</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>881.9622832687159</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>881.9622832687159</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="X16" t="n">
-        <v>653.9727323706985</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="Y16" t="n">
-        <v>653.9727323706985</v>
+        <v>563.4221461351941</v>
       </c>
     </row>
     <row r="17">
@@ -5510,49 +5510,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>2471.625054112573</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>2596.982614170411</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171745</v>
+        <v>2596.982614170411</v>
       </c>
       <c r="M18" t="n">
-        <v>1479.482307609636</v>
+        <v>3365.350760562872</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.344935273669</v>
+        <v>3365.350760562872</v>
       </c>
       <c r="O18" t="n">
-        <v>2349.156466080599</v>
+        <v>4034.814521865532</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>4555.115143601279</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916993</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>359.1696912903951</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C19" t="n">
-        <v>359.1696912903951</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1696912903951</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765186</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W19" t="n">
-        <v>786.0822064765186</v>
+        <v>809.2080944642998</v>
       </c>
       <c r="X19" t="n">
-        <v>558.0926555785013</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="Y19" t="n">
-        <v>540.8181561206347</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5744,58 +5744,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2334.498159098441</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2745.388427942954</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L21" t="n">
-        <v>3359.285497699842</v>
+        <v>381.3300194168667</v>
       </c>
       <c r="M21" t="n">
-        <v>3359.285497699842</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N21" t="n">
-        <v>3375.980772660172</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O21" t="n">
-        <v>4045.444533962831</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698578</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>412.2823606383756</v>
+        <v>453.9259926442952</v>
       </c>
       <c r="C22" t="n">
-        <v>412.2823606383756</v>
+        <v>453.9259926442952</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>453.9259926442952</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>453.9259926442952</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5941,19 +5941,19 @@
         <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V22" t="n">
-        <v>675.0071030383442</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W22" t="n">
-        <v>675.0071030383442</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="X22" t="n">
-        <v>675.0071030383442</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="Y22" t="n">
-        <v>454.2145238948141</v>
+        <v>453.9259926442952</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5981,16 +5981,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6014,25 +6014,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2334.498159098441</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2459.855719156278</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L24" t="n">
-        <v>2689.818825024627</v>
+        <v>510.3034215191122</v>
       </c>
       <c r="M24" t="n">
-        <v>3458.186971417089</v>
+        <v>843.9587363963141</v>
       </c>
       <c r="N24" t="n">
-        <v>3802.707627054707</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O24" t="n">
-        <v>4472.171388357367</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P24" t="n">
-        <v>4791.460014500963</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3761.099816979246</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C25" t="n">
-        <v>3592.163634051339</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D25" t="n">
-        <v>3592.163634051339</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365623</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>4525.994054365623</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V25" t="n">
-        <v>4271.309566159736</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W25" t="n">
-        <v>3981.892396122776</v>
+        <v>874.927113122792</v>
       </c>
       <c r="X25" t="n">
-        <v>3981.892396122776</v>
+        <v>646.9375622247746</v>
       </c>
       <c r="Y25" t="n">
-        <v>3761.099816979246</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6218,10 +6218,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6230,46 +6230,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>2334.498159098441</v>
+        <v>174.588430458507</v>
       </c>
       <c r="K27" t="n">
-        <v>2483.5678433005</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="L27" t="n">
-        <v>2483.5678433005</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="M27" t="n">
-        <v>3251.935989692962</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N27" t="n">
-        <v>4008.747334098282</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O27" t="n">
-        <v>4678.211095400941</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>4860.854573014292</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3774.981524342492</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C28" t="n">
-        <v>3606.045341414585</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>3606.045341414585</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>4549.85945949167</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>4260.730820705228</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V28" t="n">
-        <v>4177.422568316262</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W28" t="n">
-        <v>4177.422568316262</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X28" t="n">
-        <v>4177.422568316262</v>
+        <v>816.5074119443558</v>
       </c>
       <c r="Y28" t="n">
-        <v>3956.629989172732</v>
+        <v>595.7148328008257</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6464,7 +6464,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>1026.122157345152</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M30" t="n">
-        <v>1794.490303737613</v>
+        <v>1310.113056707336</v>
       </c>
       <c r="N30" t="n">
-        <v>2139.010959375231</v>
+        <v>1654.633712344954</v>
       </c>
       <c r="O30" t="n">
-        <v>2418.551024593929</v>
+        <v>1903.387126428916</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3925.098163754828</v>
+        <v>3492.843747251887</v>
       </c>
       <c r="C31" t="n">
-        <v>3756.161980826921</v>
+        <v>3492.843747251887</v>
       </c>
       <c r="D31" t="n">
-        <v>3606.045341414585</v>
+        <v>3492.843747251887</v>
       </c>
       <c r="E31" t="n">
-        <v>3606.045341414585</v>
+        <v>3492.843747251887</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>3492.843747251887</v>
       </c>
       <c r="G31" t="n">
         <v>3459.155393916675</v>
@@ -6643,28 +6643,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803799</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U31" t="n">
-        <v>4435.307912935318</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V31" t="n">
-        <v>4435.307912935318</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="W31" t="n">
-        <v>4145.890742898358</v>
+        <v>3492.843747251887</v>
       </c>
       <c r="X31" t="n">
-        <v>4145.890742898358</v>
+        <v>3492.843747251887</v>
       </c>
       <c r="Y31" t="n">
-        <v>3925.098163754828</v>
+        <v>3492.843747251887</v>
       </c>
     </row>
     <row r="32">
@@ -6680,46 +6680,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>2745.388427942954</v>
       </c>
       <c r="L33" t="n">
-        <v>754.8724882112625</v>
+        <v>2745.388427942954</v>
       </c>
       <c r="M33" t="n">
-        <v>1523.240634603724</v>
+        <v>3513.756574335415</v>
       </c>
       <c r="N33" t="n">
-        <v>1523.240634603724</v>
+        <v>3858.277229973033</v>
       </c>
       <c r="O33" t="n">
-        <v>2192.704395906384</v>
+        <v>4107.030644056996</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3925.399532794549</v>
+        <v>536.9315552689001</v>
       </c>
       <c r="C34" t="n">
-        <v>3756.463349866642</v>
+        <v>367.9953723409932</v>
       </c>
       <c r="D34" t="n">
-        <v>3756.463349866642</v>
+        <v>367.9953723409932</v>
       </c>
       <c r="E34" t="n">
-        <v>3756.463349866642</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>3609.573402368731</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4347.940519017357</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>4093.25603081147</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W34" t="n">
-        <v>4093.25603081147</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X34" t="n">
-        <v>4093.25603081147</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y34" t="n">
-        <v>3925.399532794549</v>
+        <v>536.9315552689001</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>389.2010503107776</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L36" t="n">
-        <v>1003.098120067666</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M36" t="n">
-        <v>1771.466266460128</v>
+        <v>1771.161069819836</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.466266460128</v>
+        <v>1771.161069819836</v>
       </c>
       <c r="O36" t="n">
-        <v>2440.930027762787</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3462.536904689164</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C37" t="n">
-        <v>3462.536904689164</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D37" t="n">
-        <v>3462.536904689164</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E37" t="n">
-        <v>3462.536904689164</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>3462.536904689164</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>3462.536904689164</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3462.536904689164</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U37" t="n">
-        <v>4637.069157803799</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V37" t="n">
-        <v>4382.384669597912</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W37" t="n">
-        <v>4092.967499560951</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="X37" t="n">
-        <v>3864.977948662934</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="Y37" t="n">
-        <v>3644.185369519404</v>
+        <v>582.2416896507652</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7169,13 +7169,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7187,7 +7187,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899127</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M39" t="n">
-        <v>1442.339749591389</v>
+        <v>1672.759814717971</v>
       </c>
       <c r="N39" t="n">
-        <v>1786.860405229007</v>
+        <v>2017.280470355589</v>
       </c>
       <c r="O39" t="n">
-        <v>2456.324166531666</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="P39" t="n">
-        <v>2543.548934765509</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>416.5712828402495</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="C40" t="n">
-        <v>247.6350999123426</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="D40" t="n">
-        <v>247.6350999123426</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E40" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7336,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7360,22 +7360,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>933.9780037752275</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V40" t="n">
-        <v>933.9780037752275</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W40" t="n">
-        <v>644.5608337382669</v>
+        <v>896.0506856964978</v>
       </c>
       <c r="X40" t="n">
-        <v>416.5712828402495</v>
+        <v>896.0506856964978</v>
       </c>
       <c r="Y40" t="n">
-        <v>416.5712828402495</v>
+        <v>675.2581065529677</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,7 +7421,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7430,31 +7430,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>2459.855719156278</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L42" t="n">
-        <v>3073.752788913167</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M42" t="n">
-        <v>3842.120935305628</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="N42" t="n">
-        <v>4008.747334098282</v>
+        <v>1515.525739481325</v>
       </c>
       <c r="O42" t="n">
-        <v>4678.211095400941</v>
+        <v>2184.989500783985</v>
       </c>
       <c r="P42" t="n">
-        <v>4860.854573014292</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3900.740289276202</v>
+        <v>695.9798268587604</v>
       </c>
       <c r="C43" t="n">
-        <v>3731.804106348296</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D43" t="n">
-        <v>3581.68746693596</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E43" t="n">
-        <v>3581.68746693596</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F43" t="n">
-        <v>3581.68746693596</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G43" t="n">
-        <v>3581.68746693596</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>4371.805924143403</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>4371.805924143403</v>
+        <v>916.7724060022905</v>
       </c>
       <c r="W43" t="n">
-        <v>4082.388754106442</v>
+        <v>916.7724060022905</v>
       </c>
       <c r="X43" t="n">
-        <v>4082.388754106442</v>
+        <v>916.7724060022905</v>
       </c>
       <c r="Y43" t="n">
-        <v>4082.388754106442</v>
+        <v>695.9798268587604</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
@@ -7643,7 +7643,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7655,25 +7655,25 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7688,10 +7688,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5746515181232</v>
+        <v>121.6468454822122</v>
       </c>
       <c r="L45" t="n">
-        <v>452.5377573864724</v>
+        <v>351.6099513505613</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.288466700114</v>
+        <v>671.9452708802631</v>
       </c>
       <c r="N45" t="n">
-        <v>1433.809122337732</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O45" t="n">
-        <v>2103.272883640391</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3774.981524342492</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C46" t="n">
-        <v>3606.045341414585</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D46" t="n">
-        <v>3606.045341414585</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E46" t="n">
-        <v>3606.045341414585</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>4250.458591691909</v>
+        <v>1254.257214061442</v>
       </c>
       <c r="V46" t="n">
-        <v>3995.774103486022</v>
+        <v>1254.257214061442</v>
       </c>
       <c r="W46" t="n">
-        <v>3995.774103486022</v>
+        <v>964.8400440244812</v>
       </c>
       <c r="X46" t="n">
-        <v>3995.774103486022</v>
+        <v>964.8400440244812</v>
       </c>
       <c r="Y46" t="n">
-        <v>3774.981524342492</v>
+        <v>744.0474648809511</v>
       </c>
     </row>
   </sheetData>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>302.742529705466</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>306.6408664898258</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>262.9004702911451</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>257.5359209962564</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9732,7 +9732,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>36.24268872006418</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,10 +9960,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>431.2613300417044</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,25 +10194,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>273.9895647817063</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>222.2772533831299</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,19 +10437,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>228.1279077651972</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10674,16 +10674,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>242.0404720652813</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>162.517958188426</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>332.7581576097778</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11394,10 +11394,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>6.315094224389782</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>61.58968815487849</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>170.7859193533185</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>66.08953859867972</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>252.0512521301225</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>201.4828988888069</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.3191385580632</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>107.6866326816757</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>14.75580491325184</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>153.5228248801876</v>
       </c>
     </row>
     <row r="26">
@@ -24607,10 +24607,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24652,19 +24652,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>169.6624734587515</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>79.55760880741124</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>133.1420986615173</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>86.49371997878177</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>44.85703303804651</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25129,19 +25129,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>52.40672031534277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>107.0715497995074</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>157.3369763638303</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,22 +25600,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>146.4168393257218</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>139.7445226312318</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0263215427157</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25843,16 +25843,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>159.9733797959529</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26068,22 +26068,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>211.378054335202</v>
+        <v>44.02488646708136</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016472</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="C2" t="n">
+        <v>656833.4158914264</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914263</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914263</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914266</v>
-      </c>
       <c r="E2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="M2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="F2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="O2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="P2" t="n">
         <v>625646.4955803342</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625646.4955803344</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625646.4955803344</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625646.495580334</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758975</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758693</v>
       </c>
       <c r="I4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758693</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758696</v>
       </c>
     </row>
     <row r="5">
@@ -26497,7 +26497,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155052.6805671467</v>
+        <v>-155052.6805671463</v>
       </c>
       <c r="C6" t="n">
+        <v>434915.1986473979</v>
+      </c>
+      <c r="D6" t="n">
         <v>434915.1986473978</v>
       </c>
-      <c r="D6" t="n">
-        <v>434915.198647398</v>
-      </c>
       <c r="E6" t="n">
-        <v>7711.339464145567</v>
+        <v>7711.339464145363</v>
       </c>
       <c r="F6" t="n">
+        <v>532871.3759410416</v>
+      </c>
+      <c r="G6" t="n">
+        <v>532871.3759410416</v>
+      </c>
+      <c r="H6" t="n">
+        <v>532871.3759410416</v>
+      </c>
+      <c r="I6" t="n">
         <v>532871.3759410419</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>356448.1567484488</v>
+      </c>
+      <c r="K6" t="n">
         <v>532871.3759410419</v>
       </c>
-      <c r="H6" t="n">
-        <v>532871.3759410417</v>
-      </c>
-      <c r="I6" t="n">
-        <v>532871.3759410417</v>
-      </c>
-      <c r="J6" t="n">
-        <v>356448.1567484487</v>
-      </c>
-      <c r="K6" t="n">
-        <v>532871.375941042</v>
-      </c>
       <c r="L6" t="n">
-        <v>532871.3759410419</v>
+        <v>532871.3759410416</v>
       </c>
       <c r="M6" t="n">
         <v>398070.3607072044</v>
       </c>
       <c r="N6" t="n">
-        <v>532871.375941042</v>
+        <v>532871.3759410416</v>
       </c>
       <c r="O6" t="n">
+        <v>532871.3759410415</v>
+      </c>
+      <c r="P6" t="n">
         <v>532871.3759410417</v>
-      </c>
-      <c r="P6" t="n">
-        <v>532871.3759410415</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26738,13 +26738,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>1.319327339087636</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>347.8425941299254</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>89.55199276841111</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>93.91355736526035</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>299.8224335189137</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>171.2017619672735</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.1940184301661</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>146.139324133532</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59.90261513708396</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>163.8572211747451</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>96.21761067956726</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.169471064289421e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -31127,7 +31127,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31142,13 +31142,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>149.8971812516338</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>162.4518126576419</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31613,10 +31613,10 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>167.9005868329995</v>
       </c>
       <c r="O9" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31844,31 +31844,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>207.1553426629846</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>280.3607871064143</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32020,7 +32020,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
         <v>76.0697047810465</v>
@@ -32084,19 +32084,19 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>268.8901256989477</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32236,7 +32236,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041496</v>
       </c>
       <c r="L17" t="n">
         <v>526.796267130444</v>
@@ -32312,19 +32312,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>139.2586064920474</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32333,10 +32333,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32549,28 +32549,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>148.205626184676</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32731,7 +32731,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
         <v>76.0697047810465</v>
@@ -32786,31 +32786,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>13.45454075505057</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>138.0254025558032</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,7 +33032,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813462</v>
@@ -33041,13 +33041,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33260,10 +33260,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
@@ -33275,16 +33275,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33497,31 +33497,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>278.8596303315469</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33655,7 +33655,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961211</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33734,10 +33734,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>168.3094937299539</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
@@ -33746,16 +33746,16 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>407.9672094012383</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33916,7 +33916,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S38" t="n">
         <v>76.0697047810465</v>
@@ -33971,16 +33971,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -33989,13 +33989,13 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>222.0802339131611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34217,16 +34217,16 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>299.6512058132864</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>188.430271177246</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565527</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34454,22 +34454,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>439.4413081865696</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>531.6268619386993</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>555.8985714458502</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>592.4611555269292</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>138.5120151657895</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>545.2641725322533</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>118.9815412163823</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>16.86391410134267</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>337.0255705830322</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>322.5137637814101</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>78.15286767497086</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>764.4559034397173</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>523.2472697377307</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>429.3706683146546</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>435.2213226967219</v>
+        <v>463.3479915571538</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>294.9332917681735</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
@@ -37397,13 +37397,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>265.3709649567939</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>524.4041743063895</v>
       </c>
       <c r="P39" t="n">
-        <v>88.10582649883081</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>168.3094937299531</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>372.9186324028529</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,10 +38023,10 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>24.676519214067</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>643.1825346602441</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3082449.214532659</v>
+        <v>3157978.884197465</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>846443.4984989042</v>
+        <v>1019084.471471049</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>91.91498084564908</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>34.0877759423364</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>13.78417002079501</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984462</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -820,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>122.5935461816078</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>171.686886903008</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>65.45045825209382</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>198.6452919450165</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>56.57756245340212</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>79.57033125550514</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>218.0731488975166</v>
+        <v>324.3952242569038</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>49.20343734336398</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1528,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>140.1188684221794</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>49.90082807782698</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1818,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>220.4334597379113</v>
+        <v>14.44700389865935</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>53.42118648345617</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,10 +2061,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.47174620646848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2141,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>37.73441534125552</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.878584356326221</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>246.2292106190985</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>65.06182847190721</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>156.5918462324806</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>146.1520465816259</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>33.35146980186034</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3007,10 +3009,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>180.3522383966722</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>37.77589834984271</v>
       </c>
       <c r="E34" t="n">
-        <v>101.5769296085227</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3323,10 +3325,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>36.56241635926716</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>61.24767698826445</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>78.08687808561281</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>146.7784757053592</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>92.16426352787512</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>163.6049849827146</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>25.15992137229849</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>242.212465931496</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>666.7503635877424</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="C2" t="n">
-        <v>666.7503635877424</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D2" t="n">
-        <v>666.7503635877424</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533136</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733119</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224066</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.69155979125</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.14909101822</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548713</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548713</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2423.485734520776</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2169.723949158868</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>2169.723949158868</v>
       </c>
       <c r="W2" t="n">
-        <v>1816.955293888756</v>
+        <v>2169.723949158868</v>
       </c>
       <c r="X2" t="n">
-        <v>1443.489535627676</v>
+        <v>2169.723949158868</v>
       </c>
       <c r="Y2" t="n">
-        <v>1053.350203651864</v>
+        <v>1779.584617183056</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614628</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571345</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014716</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537795</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152624</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.14909101822</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430045</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073961</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>373.0594214943677</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>373.0594214943677</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658206</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502496</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594896</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064338</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064338</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064338</v>
       </c>
       <c r="S4" t="n">
-        <v>604.2971193765273</v>
+        <v>728.1289842064338</v>
       </c>
       <c r="T4" t="n">
-        <v>604.2971193765273</v>
+        <v>728.1289842064338</v>
       </c>
       <c r="U4" t="n">
-        <v>604.2971193765273</v>
+        <v>728.1289842064338</v>
       </c>
       <c r="V4" t="n">
-        <v>604.2971193765273</v>
+        <v>728.1289842064338</v>
       </c>
       <c r="W4" t="n">
-        <v>604.2971193765273</v>
+        <v>728.1289842064338</v>
       </c>
       <c r="X4" t="n">
-        <v>604.2971193765273</v>
+        <v>554.7078863246074</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.5045402329973</v>
+        <v>554.7078863246074</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1289.01781586839</v>
+        <v>1580.775345511215</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1211.812828570804</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1211.812828570804</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>826.0245759725592</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.372765927088</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>2344.380435748107</v>
       </c>
       <c r="X5" t="n">
-        <v>1289.01781586839</v>
+        <v>1970.914677487027</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.01781586839</v>
+        <v>1580.775345511215</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614628</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571345</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417903</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358.5813018857447</v>
+        <v>2191.899271560058</v>
       </c>
       <c r="C7" t="n">
-        <v>358.5813018857447</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="D7" t="n">
-        <v>358.5813018857447</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259578</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977608</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662037</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171277</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>2640.000038034987</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>2412.691850703588</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>2412.691850703588</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>2412.691850703588</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610024</v>
+        <v>2412.691850703588</v>
       </c>
       <c r="X7" t="n">
-        <v>358.5813018857447</v>
+        <v>2412.691850703588</v>
       </c>
       <c r="Y7" t="n">
-        <v>358.5813018857447</v>
+        <v>2191.899271560058</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2311.057514205144</v>
+        <v>1645.450628940881</v>
       </c>
       <c r="C8" t="n">
-        <v>1942.094997264733</v>
+        <v>1645.450628940881</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.829298657982</v>
+        <v>1287.184930334131</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,22 +4801,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205144</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205144</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X8" t="n">
-        <v>2311.057514205144</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y8" t="n">
-        <v>2311.057514205144</v>
+        <v>1645.450628940881</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>261.391796148808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>261.391796148808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>261.391796148808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.391796148808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U10" t="n">
-        <v>261.391796148808</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>261.391796148808</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>261.391796148808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>261.391796148808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>261.391796148808</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>532.2639865649898</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="M12" t="n">
-        <v>1300.632132957451</v>
+        <v>1442.796708849622</v>
       </c>
       <c r="N12" t="n">
-        <v>2105.043711221602</v>
+        <v>1787.31736448724</v>
       </c>
       <c r="O12" t="n">
-        <v>2353.797125305564</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>557.8041243279824</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C13" t="n">
-        <v>388.8679414000756</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>238.7513019877398</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1448.511393711613</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1448.511393711613</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1448.511393711613</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>1448.511393711613</v>
       </c>
       <c r="W13" t="n">
-        <v>785.7936752259998</v>
+        <v>1159.094223674652</v>
       </c>
       <c r="X13" t="n">
-        <v>557.8041243279824</v>
+        <v>931.1046727766346</v>
       </c>
       <c r="Y13" t="n">
-        <v>557.8041243279824</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5273,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>754.8724882112626</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1341.409032182923</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>2145.820610447073</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="O15" t="n">
-        <v>2145.820610447073</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.4221461351941</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="C16" t="n">
-        <v>563.4221461351941</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W16" t="n">
-        <v>563.4221461351941</v>
+        <v>1284.403327242486</v>
       </c>
       <c r="X16" t="n">
-        <v>563.4221461351941</v>
+        <v>1056.413776344468</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.4221461351941</v>
+        <v>835.6211972009382</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,67 +5500,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2471.625054112573</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2596.982614170411</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>2596.982614170411</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>3365.350760562872</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="N18" t="n">
-        <v>3365.350760562872</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="O18" t="n">
-        <v>4034.814521865532</v>
+        <v>1957.789393516709</v>
       </c>
       <c r="P18" t="n">
-        <v>4555.115143601279</v>
+        <v>2478.090015252456</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916993</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>581.2185435662825</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C19" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5707,16 +5709,16 @@
         <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>844.0280401273993</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W19" t="n">
-        <v>809.2080944642998</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="X19" t="n">
-        <v>581.2185435662825</v>
+        <v>581.3058073983079</v>
       </c>
       <c r="Y19" t="n">
-        <v>581.2185435662825</v>
+        <v>581.3058073983079</v>
       </c>
     </row>
     <row r="20">
@@ -5747,49 +5749,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>381.3300194168667</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M21" t="n">
-        <v>1149.698165809328</v>
+        <v>1184.102745468362</v>
       </c>
       <c r="N21" t="n">
-        <v>1954.109744073479</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>453.9259926442952</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C22" t="n">
-        <v>453.9259926442952</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D22" t="n">
-        <v>453.9259926442952</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>453.9259926442952</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>964.135741824786</v>
+        <v>1273.233295391523</v>
       </c>
       <c r="V22" t="n">
-        <v>964.135741824786</v>
+        <v>1018.548807185636</v>
       </c>
       <c r="W22" t="n">
-        <v>674.7185717878253</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="X22" t="n">
-        <v>674.7185717878253</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="Y22" t="n">
-        <v>453.9259926442952</v>
+        <v>729.1316371486756</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,13 +6010,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6029,10 +6031,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>510.3034215191122</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M24" t="n">
-        <v>843.9587363963141</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="N24" t="n">
-        <v>1648.370314660465</v>
+        <v>1312.518938568949</v>
       </c>
       <c r="O24" t="n">
-        <v>2317.834075963124</v>
+        <v>1981.982699871608</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2502.283321607356</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>581.2185435662825</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C25" t="n">
-        <v>412.2823606383756</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383756</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6174,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>874.927113122792</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V25" t="n">
-        <v>874.927113122792</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W25" t="n">
-        <v>874.927113122792</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="X25" t="n">
-        <v>646.9375622247746</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="Y25" t="n">
-        <v>581.2185435662825</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="26">
@@ -6218,46 +6220,46 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
@@ -6291,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>174.588430458507</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>323.6581146605669</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L27" t="n">
-        <v>323.6581146605669</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M27" t="n">
-        <v>323.6581146605669</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N27" t="n">
-        <v>1128.069692924718</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>414.0663679705859</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1340.742688504892</v>
       </c>
       <c r="U28" t="n">
-        <v>964.135741824786</v>
+        <v>1340.742688504892</v>
       </c>
       <c r="V28" t="n">
-        <v>964.135741824786</v>
+        <v>1340.742688504892</v>
       </c>
       <c r="W28" t="n">
-        <v>964.135741824786</v>
+        <v>1340.742688504892</v>
       </c>
       <c r="X28" t="n">
-        <v>816.5074119443558</v>
+        <v>1112.753137606874</v>
       </c>
       <c r="Y28" t="n">
-        <v>595.7148328008257</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6461,25 +6463,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6503,10 +6505,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6545,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1002.792923427374</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1310.113056707336</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N30" t="n">
-        <v>1654.633712344954</v>
+        <v>1938.523579407784</v>
       </c>
       <c r="O30" t="n">
-        <v>1903.387126428916</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3492.843747251887</v>
+        <v>692.753134944335</v>
       </c>
       <c r="C31" t="n">
-        <v>3492.843747251887</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D31" t="n">
-        <v>3492.843747251887</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E31" t="n">
-        <v>3492.843747251887</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F31" t="n">
-        <v>3492.843747251887</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>4326.074044281177</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>4036.945405494735</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V31" t="n">
-        <v>3782.260917288848</v>
+        <v>692.753134944335</v>
       </c>
       <c r="W31" t="n">
-        <v>3492.843747251887</v>
+        <v>692.753134944335</v>
       </c>
       <c r="X31" t="n">
-        <v>3492.843747251887</v>
+        <v>692.753134944335</v>
       </c>
       <c r="Y31" t="n">
-        <v>3492.843747251887</v>
+        <v>692.753134944335</v>
       </c>
     </row>
     <row r="32">
@@ -6683,43 +6685,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>2745.388427942954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L33" t="n">
-        <v>2745.388427942954</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M33" t="n">
-        <v>3513.756574335415</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N33" t="n">
-        <v>3858.277229973033</v>
+        <v>1809.344935273669</v>
       </c>
       <c r="O33" t="n">
-        <v>4107.030644056996</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>536.9315552689001</v>
+        <v>3834.424371605411</v>
       </c>
       <c r="C34" t="n">
-        <v>367.9953723409932</v>
+        <v>3665.488188677504</v>
       </c>
       <c r="D34" t="n">
-        <v>367.9953723409932</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="V34" t="n">
-        <v>1275.130855347408</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="W34" t="n">
-        <v>985.7136853104475</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="X34" t="n">
-        <v>757.7241344124302</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="Y34" t="n">
-        <v>536.9315552689001</v>
+        <v>4016.072836435651</v>
       </c>
     </row>
     <row r="35">
@@ -6932,43 +6934,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>1002.792923427374</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M36" t="n">
-        <v>1771.161069819836</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.161069819836</v>
+        <v>1899.959921985247</v>
       </c>
       <c r="O36" t="n">
-        <v>2033.878325127062</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>582.2416896507652</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C37" t="n">
-        <v>413.3055067228584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>413.3055067228584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>898.7925182488384</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>644.1080300429516</v>
+        <v>1461.984536861673</v>
       </c>
       <c r="W37" t="n">
-        <v>644.1080300429516</v>
+        <v>1172.567366824712</v>
       </c>
       <c r="X37" t="n">
-        <v>644.1080300429516</v>
+        <v>944.5778159266949</v>
       </c>
       <c r="Y37" t="n">
-        <v>582.2416896507652</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7171,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>904.39166832551</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1672.759814717971</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N39" t="n">
-        <v>2017.280470355589</v>
+        <v>2169.797610509966</v>
       </c>
       <c r="O39" t="n">
-        <v>2536.440602918915</v>
+        <v>2418.551024593929</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>675.2581065529677</v>
+        <v>754.894602230607</v>
       </c>
       <c r="C40" t="n">
-        <v>675.2581065529677</v>
+        <v>585.9584193027001</v>
       </c>
       <c r="D40" t="n">
-        <v>675.2581065529677</v>
+        <v>585.9584193027001</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705745</v>
+        <v>438.045325720307</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>438.045325720307</v>
       </c>
       <c r="G40" t="n">
         <v>359.1696912903951</v>
@@ -7327,7 +7329,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7369,13 +7371,13 @@
         <v>1044.311772267568</v>
       </c>
       <c r="W40" t="n">
-        <v>896.0506856964978</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X40" t="n">
-        <v>896.0506856964978</v>
+        <v>754.894602230607</v>
       </c>
       <c r="Y40" t="n">
-        <v>675.2581065529677</v>
+        <v>754.894602230607</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207831</v>
@@ -7436,25 +7438,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7490,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>246.9264991764681</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>395.9961833785279</v>
       </c>
       <c r="L42" t="n">
-        <v>711.1141612171746</v>
+        <v>1009.893253135417</v>
       </c>
       <c r="M42" t="n">
-        <v>711.1141612171746</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N42" t="n">
-        <v>1515.525739481325</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O42" t="n">
-        <v>2184.989500783985</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P42" t="n">
         <v>2554.178946862809</v>
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.9798268587604</v>
+        <v>523.8169520164282</v>
       </c>
       <c r="C43" t="n">
-        <v>527.0436439308535</v>
+        <v>523.8169520164282</v>
       </c>
       <c r="D43" t="n">
-        <v>376.9270045185178</v>
+        <v>523.8169520164282</v>
       </c>
       <c r="E43" t="n">
-        <v>376.9270045185178</v>
+        <v>523.8169520164282</v>
       </c>
       <c r="F43" t="n">
         <v>376.9270045185178</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V43" t="n">
-        <v>916.7724060022905</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W43" t="n">
-        <v>916.7724060022905</v>
+        <v>933.4549677446853</v>
       </c>
       <c r="X43" t="n">
-        <v>916.7724060022905</v>
+        <v>705.4654168466679</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.9798268587604</v>
+        <v>705.4654168466679</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7649,25 +7651,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7725,19 +7727,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>121.6468454822122</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L45" t="n">
-        <v>351.6099513505613</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M45" t="n">
-        <v>671.9452708802631</v>
+        <v>1092.65561809896</v>
       </c>
       <c r="N45" t="n">
-        <v>1476.356849144414</v>
+        <v>1897.067196363111</v>
       </c>
       <c r="O45" t="n">
         <v>2145.820610447073</v>
@@ -7780,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>562.3990000507114</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="C46" t="n">
-        <v>562.3990000507114</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="D46" t="n">
         <v>412.2823606383756</v>
@@ -7804,7 +7806,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
@@ -7813,7 +7815,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>1254.257214061442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1254.257214061442</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W46" t="n">
-        <v>964.8400440244812</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X46" t="n">
-        <v>964.8400440244812</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y46" t="n">
-        <v>744.0474648809511</v>
+        <v>437.6964226305963</v>
       </c>
     </row>
   </sheetData>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>302.742529705466</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270201</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -9003,22 +9005,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>58.39167737270077</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9246,13 +9248,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>48.20260158500844</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>257.5359209962564</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>167.3418696679051</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>34.50230435511004</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,22 +9953,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>36.24268872006418</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10197,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>222.2772533831299</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,19 +10676,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>264.0707480392354</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10914,7 +10916,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>242.0404720652813</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>109.3114450008329</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11376,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>162.517958188426</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>232.9044325801856</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23267,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23416,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>6.315094224389782</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>148.0199819057763</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>66.08953859867972</v>
+        <v>272.0759944379316</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>126.4107936984811</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>252.0512521301225</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,22 +24129,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>107.6866326816757</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>284.3587680422511</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>40.29378771749248</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.5228248801876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>64.95571482590867</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>79.55760880741124</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>133.1420986615173</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>71.78540492715581</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>110.8395746683697</v>
       </c>
       <c r="E34" t="n">
-        <v>44.85703303804651</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25129,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>215.5752269645608</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>157.3369763638303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>88.40669037776478</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>139.7445226312318</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>159.9733797959529</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>122.9180133538764</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>123.4555516459139</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26077,19 +26079,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>44.02488646708136</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914263</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="F2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="F2" t="n">
-        <v>625646.4955803341</v>
-      </c>
       <c r="G2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="H2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="K2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.495580334</v>
       </c>
       <c r="L2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.495580334</v>
       </c>
       <c r="M2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803344</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.879214544</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.407704980418203e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.1391806192</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.1391806191</v>
-      </c>
-      <c r="C4" t="n">
-        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.79369057593</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="N4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155052.6805671463</v>
+        <v>-155052.680567146</v>
       </c>
       <c r="C6" t="n">
         <v>434915.1986473979</v>
       </c>
       <c r="D6" t="n">
-        <v>434915.1986473978</v>
+        <v>434915.1986473975</v>
       </c>
       <c r="E6" t="n">
-        <v>7711.339464145363</v>
+        <v>7711.33946414548</v>
       </c>
       <c r="F6" t="n">
-        <v>532871.3759410416</v>
+        <v>532871.3759410415</v>
       </c>
       <c r="G6" t="n">
-        <v>532871.3759410416</v>
+        <v>532871.3759410419</v>
       </c>
       <c r="H6" t="n">
-        <v>532871.3759410416</v>
+        <v>532871.3759410417</v>
       </c>
       <c r="I6" t="n">
+        <v>532871.3759410417</v>
+      </c>
+      <c r="J6" t="n">
+        <v>356448.1567484489</v>
+      </c>
+      <c r="K6" t="n">
+        <v>532871.3759410415</v>
+      </c>
+      <c r="L6" t="n">
+        <v>532871.3759410415</v>
+      </c>
+      <c r="M6" t="n">
+        <v>398070.3607072047</v>
+      </c>
+      <c r="N6" t="n">
+        <v>532871.3759410417</v>
+      </c>
+      <c r="O6" t="n">
+        <v>532871.3759410417</v>
+      </c>
+      <c r="P6" t="n">
         <v>532871.3759410419</v>
-      </c>
-      <c r="J6" t="n">
-        <v>356448.1567484488</v>
-      </c>
-      <c r="K6" t="n">
-        <v>532871.3759410419</v>
-      </c>
-      <c r="L6" t="n">
-        <v>532871.3759410416</v>
-      </c>
-      <c r="M6" t="n">
-        <v>398070.3607072044</v>
-      </c>
-      <c r="N6" t="n">
-        <v>532871.3759410416</v>
-      </c>
-      <c r="O6" t="n">
-        <v>532871.3759410415</v>
-      </c>
-      <c r="P6" t="n">
-        <v>532871.3759410417</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170863</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.287272754555</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545553</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.287272754555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545548</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.287272754555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>290.8188608178315</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>347.8425941299254</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27509,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2.785327524179593e-12</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27540,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>89.55199276841111</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>54.02276848602912</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>299.8224335189137</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>208.230753796695</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>155.5679764966168</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>146.139324133532</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27855,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>163.8572211747451</v>
+        <v>57.53514581535802</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>96.21761067956726</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>83.36203824822857</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29323,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516327</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M6" t="n">
-        <v>86.4344768999344</v>
+        <v>162.4518126576427</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31613,28 +31615,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>167.9005868329995</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31838,31 +31840,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>207.1553426629846</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.14352825443325</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,16 +32086,16 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>268.8901256989477</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32104,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,25 +32226,25 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041496</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,19 +32314,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>139.2586064920474</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,31 +32551,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32788,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>13.45454075505057</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,19 +33025,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>328.1075911282039</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33047,13 +33049,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33262,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.2151861323644</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33500,22 +33502,22 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>66.00329082887293</v>
       </c>
       <c r="P33" t="n">
-        <v>278.8596303315469</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33524,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961211</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33736,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>407.9672094012383</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33973,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>386.8052578595551</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,25 +34210,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>188.430271177246</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34235,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565527</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839178</v>
       </c>
       <c r="P3" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>486.0228424856243</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>439.4413081865696</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>308.4096030867183</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>592.4611555269292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>340.7553796138089</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>138.5120151657895</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>136.2156343700825</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>118.9815412163823</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>477.7662467183715</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>337.0255705830322</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>122.5153371401841</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>78.15286767497086</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>196.7658790448706</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36695,7 +36697,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>507.4812609646495</v>
       </c>
       <c r="P30" t="n">
-        <v>429.3706683146546</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>317.269365661158</v>
       </c>
       <c r="P33" t="n">
-        <v>463.3479915571538</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>265.3709649567939</v>
+        <v>546.4344502803435</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>734.8059201197754</v>
       </c>
       <c r="O39" t="n">
-        <v>524.4041743063895</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.2216239557396</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>372.9186324028529</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>24.676519214067</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>90.77039865816727</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3150961.869305754</v>
+        <v>3155901.132154786</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>541815.4997986389</v>
+        <v>600416.2067774634</v>
       </c>
     </row>
     <row r="8">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>313.402097250776</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>227.6599794570907</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.30846669433845</v>
+        <v>80.30846669433868</v>
       </c>
     </row>
     <row r="5">
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>324.495040141429</v>
+        <v>344.9851721024851</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>188.5970350096847</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>16.60557849018839</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385008</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174144</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>67.20739854797276</v>
+        <v>220.0883375064756</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896907</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>31.42218700821013</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>219.0491471058336</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056519</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>57.64843562452448</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>174.7430637258776</v>
+        <v>66.14085215535403</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896924</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V31" t="n">
-        <v>161.1706059301403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>191.0744422330678</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.526976800218</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056519</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>234.1231749377863</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1763.586886263858</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>2096.980396922474</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1738.714698315724</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1352.926445717479</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>941.9405409278718</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>523.9767328260587</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1763.586886263858</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1763.586886263858</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1763.586886263858</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1763.586886263858</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4391,19 +4391,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4494,43 +4494,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y4" t="n">
         <v>498.8626623130036</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1547.452423968253</v>
+        <v>1568.149526959219</v>
       </c>
       <c r="C5" t="n">
-        <v>1178.489907027842</v>
+        <v>1199.187010018807</v>
       </c>
       <c r="D5" t="n">
-        <v>1178.489907027842</v>
+        <v>1199.187010018807</v>
       </c>
       <c r="E5" t="n">
-        <v>792.7016544295973</v>
+        <v>813.398757420563</v>
       </c>
       <c r="F5" t="n">
-        <v>381.7157496399897</v>
+        <v>402.4128526309555</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4606,13 +4606,13 @@
         <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1937.591755944065</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y5" t="n">
-        <v>1547.452423968253</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4652,7 +4652,7 @@
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1970.914677487028</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C8" t="n">
-        <v>1970.914677487028</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>1612.648978880278</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>1226.860726282034</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>815.874821492426</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>397.9110133906129</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,7 +4807,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2680.375779411972</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2680.375779411972</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2680.375779411972</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2680.375779411972</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2680.375779411972</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2327.607124141857</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y8" t="n">
-        <v>1970.914677487028</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="9">
@@ -4898,10 +4898,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -5032,52 +5032,52 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>428.6143585616992</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>658.5774644300484</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1426.94561082251</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N12" t="n">
-        <v>1771.466266460128</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>714.6010158349783</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C13" t="n">
-        <v>545.6648329070714</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947357</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>964.1357418247865</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X13" t="n">
-        <v>896.249480665218</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="Y13" t="n">
-        <v>896.249480665218</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5302,28 +5302,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>465.3907418918569</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1079.287811648746</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1847.655958041207</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N15" t="n">
-        <v>2192.176613678825</v>
+        <v>2234.893232091767</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>128.9566742968617</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>128.9566742968617</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>128.9566742968617</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>128.9566742968617</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>128.9566742968617</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V16" t="n">
-        <v>764.7404518075996</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W16" t="n">
-        <v>475.3232817706389</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="X16" t="n">
-        <v>247.3337308726216</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.3337308726216</v>
+        <v>310.6051391271014</v>
       </c>
     </row>
     <row r="17">
@@ -5491,55 +5491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,13 +5591,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
         <v>1288.32563221405</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336716</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5740,25 +5740,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,13 +5828,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
         <v>1288.32563221405</v>
@@ -5843,7 +5843,7 @@
         <v>1288.32563221405</v>
       </c>
       <c r="N21" t="n">
-        <v>2092.737210478201</v>
+        <v>2092.7372104782</v>
       </c>
       <c r="O21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352016</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150552</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170379</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735078</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5986,55 +5986,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,25 +6056,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M24" t="n">
         <v>2056.693778606511</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>731.31772835508</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181194</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X25" t="n">
-        <v>265.3924131404652</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.3924131404652</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
@@ -6229,25 +6229,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,16 +6305,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1819.161927111987</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6384,16 +6384,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,19 +6402,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
         <v>869.3083006011507</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6542,10 +6542,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
         <v>1288.32563221405</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
         <v>97.21709146028587</v>
@@ -6621,16 +6621,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>1336.117678709276</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>1046.700508672316</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>818.7109577742983</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805471</v>
@@ -6703,46 +6703,46 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,16 +6779,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>436.896710962637</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1050.793780719526</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1819.161927111987</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1305.911783453794</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>1082.1263682433</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>792.997729456858</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>538.3132412509711</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>538.3132412509711</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>538.3132412509711</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>538.3132412509711</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,19 +7013,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1050.793780719526</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1819.161927111987</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7195,10 +7195,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,13 +7250,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
         <v>1288.32563221405</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336716</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,7 +7493,7 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
         <v>1288.32563221405</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247865</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>964.1357418247865</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>964.1357418247865</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,7 +7730,7 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
         <v>1288.32563221405</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,28 +7824,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9023,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9266,7 +9266,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504496</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10925,7 +10925,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>158.5022568410644</v>
+        <v>5.621317882561556</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>135.0713814551675</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>33.08849621799439</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338525</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>90.96703739368787</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24417,22 +24417,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>50.96659166315953</v>
+        <v>159.5688032336831</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V31" t="n">
-        <v>90.96703739368775</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>6.846367750535478</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338523</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338525</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>52.3998233988047</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="10">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.495580334</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803347</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="G2" t="n">
         <v>625646.4955803343</v>
       </c>
       <c r="H2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.495580334</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="K2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="L2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="M2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.4955803346</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="P2" t="n">
         <v>625646.4955803342</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26426,34 +26426,34 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905757878</v>
+        <v>787.7936905759209</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759045</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758024</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758282</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758694</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26487,31 +26487,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155052.6805671463</v>
+        <v>-155052.6805671467</v>
       </c>
       <c r="C6" t="n">
         <v>434915.198647398</v>
@@ -26530,40 +26530,40 @@
         <v>434915.198647398</v>
       </c>
       <c r="E6" t="n">
-        <v>6736.74820442375</v>
+        <v>7613.880338173111</v>
       </c>
       <c r="F6" t="n">
-        <v>531896.7846813205</v>
+        <v>532773.9168150697</v>
       </c>
       <c r="G6" t="n">
-        <v>531896.7846813202</v>
+        <v>532773.9168150697</v>
       </c>
       <c r="H6" t="n">
-        <v>531896.7846813202</v>
+        <v>532773.9168150696</v>
       </c>
       <c r="I6" t="n">
-        <v>531896.7846813204</v>
+        <v>532773.9168150694</v>
       </c>
       <c r="J6" t="n">
-        <v>355473.5654887273</v>
+        <v>356350.6976224763</v>
       </c>
       <c r="K6" t="n">
-        <v>531896.78468132</v>
+        <v>532773.9168150696</v>
       </c>
       <c r="L6" t="n">
-        <v>531896.7846813203</v>
+        <v>532773.9168150696</v>
       </c>
       <c r="M6" t="n">
-        <v>397095.7694474827</v>
+        <v>397972.9015812325</v>
       </c>
       <c r="N6" t="n">
-        <v>531896.7846813204</v>
+        <v>532773.9168150696</v>
       </c>
       <c r="O6" t="n">
-        <v>531896.78468132</v>
+        <v>532773.9168150696</v>
       </c>
       <c r="P6" t="n">
-        <v>531896.7846813201</v>
+        <v>532773.9168150696</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545562</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>10.52067551358112</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>100.0922790130442</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.2761866577563</v>
+        <v>138.2761866577561</v>
       </c>
     </row>
     <row r="5">
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>89.28912987936599</v>
+        <v>68.79899791830991</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>135.3257377546725</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>37.87282408462332</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.71678812803845e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,25 +31357,25 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>132.99849770713</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576415</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31621,10 +31621,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>139.432625713487</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>208.1209162056323</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>425.8974584957643</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041496</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.452637254088</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2687781552865</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32104,10 +32104,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,31 +32165,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>425.8974584957645</v>
@@ -32338,13 +32338,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927178</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>284.9322028423992</v>
+        <v>284.9322028423996</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
         <v>224.6051223555648</v>
@@ -32812,13 +32812,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>212.6272478467029</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
         <v>224.6051223555648</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,28 +33490,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>216.4869287318321</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33523,13 +33523,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,28 +33727,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>147.8809216101168</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33760,13 +33760,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,25 +33964,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
         <v>224.6051223555648</v>
@@ -33997,13 +33997,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,25 +34201,25 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
         <v>224.6051223555648</v>
@@ -34234,13 +34234,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,25 +34438,25 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
         <v>224.6051223555648</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35020,16 +35020,16 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>323.920986939094</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>334.7447142438519</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>773.8981207559846</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951466</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>371.8925761935061</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>749.4684883237461</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408111</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>536.1982776746843</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
         <v>572.6057846157851</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>536.1982776746845</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
         <v>572.6057846157851</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>343.1107267700517</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>380.1668871337018</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109065</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>572.6057846157851</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>572.6057846157851</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>572.6057846157851</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
